--- a/describe.xlsx
+++ b/describe.xlsx
@@ -40,9 +40,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>Idade</t>
-  </si>
-  <si>
     <t>ALT (TGP)</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Volume plaquetário médio</t>
+  </si>
+  <si>
+    <t>Ano nascimento</t>
   </si>
 </sst>
 </file>
@@ -540,28 +540,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1143</v>
+        <v>1168</v>
       </c>
       <c r="C2">
-        <v>64.30096237970254</v>
+        <v>43.67979452054794</v>
       </c>
       <c r="D2">
-        <v>17.66045948427182</v>
+        <v>102.2561271847808</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>78.5</v>
+        <v>43</v>
       </c>
       <c r="I2">
-        <v>91</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -569,28 +569,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1083</v>
+        <v>1223</v>
       </c>
       <c r="C3">
-        <v>45.34164358264081</v>
+        <v>26.45952575633688</v>
       </c>
       <c r="D3">
-        <v>105.8929009045986</v>
+        <v>24.96756892399782</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>2262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -598,28 +598,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1133</v>
+        <v>955</v>
       </c>
       <c r="C4">
-        <v>26.57546337157988</v>
+        <v>0.267413612565445</v>
       </c>
       <c r="D4">
-        <v>25.15170925989142</v>
+        <v>0.4604281022491017</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>0.14</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>0.19</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>0.26</v>
       </c>
       <c r="I4">
-        <v>230</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -627,28 +627,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>880</v>
+        <v>955</v>
       </c>
       <c r="C5">
-        <v>0.2698068181818182</v>
+        <v>0.2096439790575916</v>
       </c>
       <c r="D5">
-        <v>0.4780804754671085</v>
+        <v>0.2269284442694041</v>
       </c>
       <c r="E5">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G5">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="H5">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I5">
-        <v>8.720000000000001</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -656,28 +656,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>880</v>
+        <v>1223</v>
       </c>
       <c r="C6">
-        <v>0.2108068181818182</v>
+        <v>33.24611610793131</v>
       </c>
       <c r="D6">
-        <v>0.2316850456180023</v>
+        <v>1.317594349678599</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>0.11</v>
+        <v>32.5</v>
       </c>
       <c r="G6">
-        <v>0.16</v>
+        <v>33.3</v>
       </c>
       <c r="H6">
-        <v>0.25</v>
+        <v>34.1</v>
       </c>
       <c r="I6">
-        <v>3.01</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -685,28 +685,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1133</v>
+        <v>740</v>
       </c>
       <c r="C7">
-        <v>33.28932038834951</v>
+        <v>121.9905405405405</v>
       </c>
       <c r="D7">
-        <v>1.309701762742686</v>
+        <v>201.2594476515083</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>32.5</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>33.3</v>
+        <v>76.5</v>
       </c>
       <c r="H7">
-        <v>34.1</v>
+        <v>129.25</v>
       </c>
       <c r="I7">
-        <v>39.4</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -714,28 +714,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>692</v>
+        <v>953</v>
       </c>
       <c r="C8">
-        <v>123.5809248554913</v>
+        <v>1.219380902413431</v>
       </c>
       <c r="D8">
-        <v>204.1565064224704</v>
+        <v>0.07824180584008507</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>0.87</v>
       </c>
       <c r="F8">
-        <v>46</v>
+        <v>1.18</v>
       </c>
       <c r="G8">
-        <v>77</v>
+        <v>1.22</v>
       </c>
       <c r="H8">
-        <v>130.25</v>
+        <v>1.26</v>
       </c>
       <c r="I8">
-        <v>3658</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -743,28 +743,28 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>872</v>
+        <v>1230</v>
       </c>
       <c r="C9">
-        <v>1.219243119266055</v>
+        <v>1.25559349593496</v>
       </c>
       <c r="D9">
-        <v>0.07905222487695866</v>
+        <v>1.042133583479625</v>
       </c>
       <c r="E9">
-        <v>0.87</v>
+        <v>0.17</v>
       </c>
       <c r="F9">
-        <v>1.1775</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G9">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
       <c r="H9">
-        <v>1.26</v>
+        <v>1.2775</v>
       </c>
       <c r="I9">
-        <v>1.79</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -772,28 +772,28 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1140</v>
+        <v>654</v>
       </c>
       <c r="C10">
-        <v>1.238754385964912</v>
+        <v>590.230886850153</v>
       </c>
       <c r="D10">
-        <v>1.027736857181957</v>
+        <v>852.3175181916444</v>
       </c>
       <c r="E10">
-        <v>0.17</v>
+        <v>186</v>
       </c>
       <c r="F10">
-        <v>0.8100000000000001</v>
+        <v>391</v>
       </c>
       <c r="G10">
-        <v>0.99</v>
+        <v>478</v>
       </c>
       <c r="H10">
-        <v>1.26</v>
+        <v>636</v>
       </c>
       <c r="I10">
-        <v>11.57</v>
+        <v>17849</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -801,28 +801,28 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>606</v>
+        <v>1112</v>
       </c>
       <c r="C11">
-        <v>599.5313531353136</v>
+        <v>1490.855215827338</v>
       </c>
       <c r="D11">
-        <v>884.0601741834882</v>
+        <v>3879.579921687096</v>
       </c>
       <c r="E11">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="F11">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G11">
-        <v>484.5</v>
+        <v>663</v>
       </c>
       <c r="H11">
-        <v>646.75</v>
+        <v>1352</v>
       </c>
       <c r="I11">
-        <v>17849</v>
+        <v>80144</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -830,28 +830,28 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>1031</v>
+        <v>1223</v>
       </c>
       <c r="C12">
-        <v>1441.400581959263</v>
+        <v>59.19869174161897</v>
       </c>
       <c r="D12">
-        <v>3895.515849480407</v>
+        <v>118.9094427676027</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>397.5</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>639</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>1325</v>
+        <v>60</v>
       </c>
       <c r="I12">
-        <v>80144</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -859,28 +859,28 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>1133</v>
+        <v>710</v>
       </c>
       <c r="C13">
-        <v>58.14651368049427</v>
+        <v>36030.98591549296</v>
       </c>
       <c r="D13">
-        <v>118.4615295858115</v>
+        <v>111166.4866541214</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>12000</v>
       </c>
       <c r="I13">
-        <v>1400</v>
+        <v>953000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -888,28 +888,28 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>654</v>
+        <v>803</v>
       </c>
       <c r="C14">
-        <v>36024.46483180428</v>
+        <v>489.4371108343711</v>
       </c>
       <c r="D14">
-        <v>113297.8808894133</v>
+        <v>197.3633735387216</v>
       </c>
       <c r="E14">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="G14">
-        <v>4000</v>
+        <v>458</v>
       </c>
       <c r="H14">
-        <v>12000</v>
+        <v>597</v>
       </c>
       <c r="I14">
-        <v>953000</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -917,28 +917,28 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>757</v>
+        <v>868</v>
       </c>
       <c r="C15">
-        <v>492.7490092470277</v>
+        <v>89.36520737327189</v>
       </c>
       <c r="D15">
-        <v>197.966775817865</v>
+        <v>64.98960283505521</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>341</v>
+        <v>58</v>
       </c>
       <c r="G15">
-        <v>462</v>
+        <v>72</v>
       </c>
       <c r="H15">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="I15">
-        <v>1180</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -946,28 +946,28 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>805</v>
+        <v>912</v>
       </c>
       <c r="C16">
-        <v>89.13167701863354</v>
+        <v>80.40789473684211</v>
       </c>
       <c r="D16">
-        <v>65.64797612227113</v>
+        <v>118.0549475926628</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>94</v>
+        <v>85.25</v>
       </c>
       <c r="I16">
-        <v>741</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -975,28 +975,28 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="C17">
-        <v>82.4768133174792</v>
+        <v>122.5420792079208</v>
       </c>
       <c r="D17">
-        <v>120.4910281082989</v>
+        <v>53.20292183080255</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="F17">
-        <v>24</v>
+        <v>94.75</v>
       </c>
       <c r="G17">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="H17">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="I17">
-        <v>1435</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1004,28 +1004,28 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>742</v>
+        <v>1223</v>
       </c>
       <c r="C18">
-        <v>121.377358490566</v>
+        <v>29.68331970564187</v>
       </c>
       <c r="D18">
-        <v>53.07942689540577</v>
+        <v>2.231961648488458</v>
       </c>
       <c r="E18">
-        <v>55</v>
+        <v>18.3</v>
       </c>
       <c r="F18">
-        <v>94.25</v>
+        <v>28.65</v>
       </c>
       <c r="G18">
-        <v>107</v>
+        <v>29.8</v>
       </c>
       <c r="H18">
-        <v>129</v>
+        <v>30.9</v>
       </c>
       <c r="I18">
-        <v>595</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1033,28 +1033,28 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>1133</v>
+        <v>877</v>
       </c>
       <c r="C19">
-        <v>29.69832303618711</v>
+        <v>25.1927023945268</v>
       </c>
       <c r="D19">
-        <v>2.201807564085855</v>
+        <v>3.528169952516643</v>
       </c>
       <c r="E19">
-        <v>18.3</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>28.7</v>
+        <v>23</v>
       </c>
       <c r="G19">
-        <v>29.8</v>
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>30.9</v>
+        <v>27</v>
       </c>
       <c r="I19">
-        <v>41.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1062,28 +1062,28 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>798</v>
+        <v>1223</v>
       </c>
       <c r="C20">
-        <v>25.20300751879699</v>
+        <v>12.85789043336059</v>
       </c>
       <c r="D20">
-        <v>3.529604635899782</v>
+        <v>2.106664927624126</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="F20">
-        <v>23</v>
+        <v>11.6</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>13.1</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>14.4</v>
       </c>
       <c r="I20">
-        <v>39</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1091,28 +1091,28 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>1133</v>
+        <v>1223</v>
       </c>
       <c r="C21">
-        <v>12.93954104148279</v>
+        <v>8421.046606704824</v>
       </c>
       <c r="D21">
-        <v>2.08991110123831</v>
+        <v>5520.065055442762</v>
       </c>
       <c r="E21">
-        <v>5.8</v>
+        <v>90</v>
       </c>
       <c r="F21">
-        <v>11.7</v>
+        <v>5030</v>
       </c>
       <c r="G21">
-        <v>13.2</v>
+        <v>6920</v>
       </c>
       <c r="H21">
-        <v>14.5</v>
+        <v>10315</v>
       </c>
       <c r="I21">
-        <v>21.5</v>
+        <v>77370</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1120,28 +1120,28 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>1133</v>
+        <v>714</v>
       </c>
       <c r="C22">
-        <v>8447.175639894087</v>
+        <v>47371.14845938375</v>
       </c>
       <c r="D22">
-        <v>5588.80730606114</v>
+        <v>139182.2573652946</v>
       </c>
       <c r="E22">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="F22">
-        <v>5030</v>
+        <v>2000</v>
       </c>
       <c r="G22">
-        <v>6950</v>
+        <v>5000</v>
       </c>
       <c r="H22">
-        <v>10320</v>
+        <v>17000</v>
       </c>
       <c r="I22">
-        <v>77370</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1149,28 +1149,28 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>660</v>
+        <v>1223</v>
       </c>
       <c r="C23">
-        <v>42290.90909090909</v>
+        <v>1204.71790678659</v>
       </c>
       <c r="D23">
-        <v>129637.0803555745</v>
+        <v>2232.240710714475</v>
       </c>
       <c r="E23">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>2000</v>
+        <v>610</v>
       </c>
       <c r="G23">
-        <v>5000</v>
+        <v>940</v>
       </c>
       <c r="H23">
-        <v>15000</v>
+        <v>1400</v>
       </c>
       <c r="I23">
-        <v>900000</v>
+        <v>70640</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1178,28 +1178,28 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>1133</v>
+        <v>993</v>
       </c>
       <c r="C24">
-        <v>1212.559576345984</v>
+        <v>2.113997985901309</v>
       </c>
       <c r="D24">
-        <v>2303.209194737835</v>
+        <v>0.285671654790562</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="F24">
-        <v>610</v>
+        <v>1.9</v>
       </c>
       <c r="G24">
-        <v>940</v>
+        <v>2.1</v>
       </c>
       <c r="H24">
-        <v>1410</v>
+        <v>2.3</v>
       </c>
       <c r="I24">
-        <v>70640</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1207,28 +1207,28 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>915</v>
+        <v>1223</v>
       </c>
       <c r="C25">
-        <v>2.115628415300546</v>
+        <v>585.6336876533115</v>
       </c>
       <c r="D25">
-        <v>0.2819254554491299</v>
+        <v>429.594529543239</v>
       </c>
       <c r="E25">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>1.9</v>
+        <v>330</v>
       </c>
       <c r="G25">
-        <v>2.1</v>
+        <v>500</v>
       </c>
       <c r="H25">
-        <v>2.3</v>
+        <v>720</v>
       </c>
       <c r="I25">
-        <v>3.9</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1236,28 +1236,28 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>1133</v>
+        <v>1223</v>
       </c>
       <c r="C26">
-        <v>579.4351279788173</v>
+        <v>5835.102207686018</v>
       </c>
       <c r="D26">
-        <v>424.365290426772</v>
+        <v>4308.495258553969</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F26">
-        <v>330</v>
+        <v>3175</v>
       </c>
       <c r="G26">
-        <v>490</v>
+        <v>4650</v>
       </c>
       <c r="H26">
-        <v>710</v>
+        <v>7275</v>
       </c>
       <c r="I26">
-        <v>4300</v>
+        <v>42170</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1265,28 +1265,28 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>1133</v>
+        <v>1223</v>
       </c>
       <c r="C27">
-        <v>5740.997352162401</v>
+        <v>198662.3058053966</v>
       </c>
       <c r="D27">
-        <v>4044.930493468269</v>
+        <v>77593.94038539099</v>
       </c>
       <c r="E27">
-        <v>120</v>
+        <v>11000</v>
       </c>
       <c r="F27">
-        <v>3150</v>
+        <v>147000</v>
       </c>
       <c r="G27">
-        <v>4630</v>
+        <v>191000</v>
       </c>
       <c r="H27">
-        <v>7170</v>
+        <v>241500</v>
       </c>
       <c r="I27">
-        <v>41170</v>
+        <v>673000</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1294,28 +1294,28 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>1133</v>
+        <v>1186</v>
       </c>
       <c r="C28">
-        <v>199499.5586937334</v>
+        <v>4.138195615514333</v>
       </c>
       <c r="D28">
-        <v>78455.13251423567</v>
+        <v>0.5502893282852593</v>
       </c>
       <c r="E28">
-        <v>11000</v>
+        <v>2.7</v>
       </c>
       <c r="F28">
-        <v>148000</v>
+        <v>3.8</v>
       </c>
       <c r="G28">
-        <v>191000</v>
+        <v>4.1</v>
       </c>
       <c r="H28">
-        <v>243000</v>
+        <v>4.4</v>
       </c>
       <c r="I28">
-        <v>673000</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1323,28 +1323,28 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>1096</v>
+        <v>1212</v>
       </c>
       <c r="C29">
-        <v>4.126642335766424</v>
+        <v>8.066740924092409</v>
       </c>
       <c r="D29">
-        <v>0.5371343239871502</v>
+        <v>8.713039481128909</v>
       </c>
       <c r="E29">
-        <v>2.7</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>3.8</v>
+        <v>1.3875</v>
       </c>
       <c r="G29">
-        <v>4.1</v>
+        <v>5.13</v>
       </c>
       <c r="H29">
-        <v>4.4</v>
+        <v>11.64</v>
       </c>
       <c r="I29">
-        <v>7.2</v>
+        <v>52.93</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1352,28 +1352,28 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>1122</v>
+        <v>1223</v>
       </c>
       <c r="C30">
-        <v>8.10794117647059</v>
+        <v>13.95985282093213</v>
       </c>
       <c r="D30">
-        <v>8.799255226781757</v>
+        <v>1.808363632972388</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>11.2</v>
       </c>
       <c r="F30">
-        <v>1.3425</v>
+        <v>12.8</v>
       </c>
       <c r="G30">
-        <v>5.18</v>
+        <v>13.5</v>
       </c>
       <c r="H30">
-        <v>11.7525</v>
+        <v>14.6</v>
       </c>
       <c r="I30">
-        <v>52.93</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1381,28 +1381,28 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>1133</v>
+        <v>1187</v>
       </c>
       <c r="C31">
-        <v>13.8982347749338</v>
+        <v>138.6158382476832</v>
       </c>
       <c r="D31">
-        <v>1.748830116169301</v>
+        <v>4.003036604645423</v>
       </c>
       <c r="E31">
-        <v>11.2</v>
+        <v>120</v>
       </c>
       <c r="F31">
-        <v>12.8</v>
+        <v>136</v>
       </c>
       <c r="G31">
-        <v>13.4</v>
+        <v>139</v>
       </c>
       <c r="H31">
-        <v>14.5</v>
+        <v>141</v>
       </c>
       <c r="I31">
-        <v>25.2</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1410,28 +1410,28 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>1097</v>
+        <v>907</v>
       </c>
       <c r="C32">
-        <v>138.640838650866</v>
+        <v>1.169603087100331</v>
       </c>
       <c r="D32">
-        <v>3.91171859439255</v>
+        <v>0.3427090765655867</v>
       </c>
       <c r="E32">
-        <v>120</v>
+        <v>0.83</v>
       </c>
       <c r="F32">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>139</v>
+        <v>1.1</v>
       </c>
       <c r="H32">
-        <v>141</v>
+        <v>1.2</v>
       </c>
       <c r="I32">
-        <v>171</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1439,28 +1439,28 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>831</v>
+        <v>900</v>
       </c>
       <c r="C33">
-        <v>1.166774969915764</v>
+        <v>1.1039</v>
       </c>
       <c r="D33">
-        <v>0.342517182612476</v>
+        <v>0.3153334146624326</v>
       </c>
       <c r="E33">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
       <c r="G33">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="H33">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="I33">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1468,28 +1468,28 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>825</v>
+        <v>1217</v>
       </c>
       <c r="C34">
-        <v>1.101212121212121</v>
+        <v>46.94248151191454</v>
       </c>
       <c r="D34">
-        <v>0.3005524603231455</v>
+        <v>31.44065490742977</v>
       </c>
       <c r="E34">
-        <v>0.65</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>0.96</v>
+        <v>28</v>
       </c>
       <c r="G34">
-        <v>1.05</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>1.16</v>
+        <v>53</v>
       </c>
       <c r="I34">
-        <v>6.1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1497,28 +1497,28 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>1127</v>
+        <v>1223</v>
       </c>
       <c r="C35">
-        <v>45.70541259982254</v>
+        <v>89.00629599345871</v>
       </c>
       <c r="D35">
-        <v>29.32221614519121</v>
+        <v>5.847472177627383</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>63.2</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G35">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="H35">
-        <v>52</v>
+        <v>92.3</v>
       </c>
       <c r="I35">
-        <v>271</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1526,28 +1526,28 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>1133</v>
+        <v>1209</v>
       </c>
       <c r="C36">
-        <v>88.99117387466902</v>
+        <v>10.3989247311828</v>
       </c>
       <c r="D36">
-        <v>5.813944773801614</v>
+        <v>0.9240569750675414</v>
       </c>
       <c r="E36">
-        <v>63.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F36">
-        <v>85.90000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G36">
-        <v>89</v>
+        <v>10.3</v>
       </c>
       <c r="H36">
-        <v>92.3</v>
+        <v>10.9</v>
       </c>
       <c r="I36">
-        <v>115.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1555,28 +1555,28 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>1122</v>
+        <v>1143</v>
       </c>
       <c r="C37">
-        <v>10.38137254901961</v>
+        <v>1957.699037620298</v>
       </c>
       <c r="D37">
-        <v>0.9169825464163492</v>
+        <v>17.66045948427182</v>
       </c>
       <c r="E37">
-        <v>8.199999999999999</v>
+        <v>1931</v>
       </c>
       <c r="F37">
-        <v>9.699999999999999</v>
+        <v>1943.5</v>
       </c>
       <c r="G37">
-        <v>10.3</v>
+        <v>1955</v>
       </c>
       <c r="H37">
-        <v>10.9</v>
+        <v>1969</v>
       </c>
       <c r="I37">
-        <v>14.3</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
